--- a/tests/inputfiles/block_2d_101.xlsx
+++ b/tests/inputfiles/block_2d_101.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adutz\Documents\GitHub\aperitif\tests\inputfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96A5424-E707-407F-AB64-C3616EEA6795}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE04F3F-1A47-43BE-AF01-6CEBE569D968}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="30">
   <si>
     <t>x</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Quad4p</t>
-  </si>
-  <si>
-    <t>Rubber</t>
   </si>
   <si>
     <t>Label</t>
@@ -107,14 +104,26 @@
     <t>Loadcase1</t>
   </si>
   <si>
-    <t>multi-k</t>
+    <t>hyp-iso-str-k</t>
+  </si>
+  <si>
+    <t>rubber</t>
+  </si>
+  <si>
+    <t>user-rubber</t>
+  </si>
+  <si>
+    <t>hyp-iso-inv</t>
+  </si>
+  <si>
+    <t>rubber-c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +135,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3736,7 +3751,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G257"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -3771,7 +3788,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3794,7 +3811,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3817,7 +3834,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -3840,7 +3857,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -3863,7 +3880,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -3886,7 +3903,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -3909,7 +3926,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -3932,7 +3949,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -3955,7 +3972,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -3978,7 +3995,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D11">
         <v>9</v>
@@ -4001,7 +4018,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -4024,7 +4041,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D13">
         <v>11</v>
@@ -4047,7 +4064,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D14">
         <v>12</v>
@@ -4070,7 +4087,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D15">
         <v>13</v>
@@ -4093,7 +4110,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D16">
         <v>14</v>
@@ -4116,7 +4133,7 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D17">
         <v>15</v>
@@ -4139,7 +4156,7 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -4162,7 +4179,7 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -4185,7 +4202,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -4208,7 +4225,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -4231,7 +4248,7 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -4254,7 +4271,7 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -4277,7 +4294,7 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -4300,7 +4317,7 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -4323,7 +4340,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -4346,7 +4363,7 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -4369,7 +4386,7 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -4392,7 +4409,7 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -4415,7 +4432,7 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -4438,7 +4455,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -4461,7 +4478,7 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -4484,7 +4501,7 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -4507,7 +4524,7 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D34">
         <v>34</v>
@@ -4530,7 +4547,7 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D35">
         <v>35</v>
@@ -4553,7 +4570,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D36">
         <v>36</v>
@@ -4576,7 +4593,7 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D37">
         <v>37</v>
@@ -4599,7 +4616,7 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D38">
         <v>38</v>
@@ -4622,7 +4639,7 @@
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D39">
         <v>39</v>
@@ -4645,7 +4662,7 @@
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D40">
         <v>40</v>
@@ -4668,7 +4685,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D41">
         <v>41</v>
@@ -4691,7 +4708,7 @@
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D42">
         <v>42</v>
@@ -4714,7 +4731,7 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D43">
         <v>43</v>
@@ -4737,7 +4754,7 @@
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D44">
         <v>44</v>
@@ -4760,7 +4777,7 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D45">
         <v>45</v>
@@ -4783,7 +4800,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D46">
         <v>46</v>
@@ -4806,7 +4823,7 @@
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D47">
         <v>47</v>
@@ -4829,7 +4846,7 @@
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D48">
         <v>48</v>
@@ -4852,7 +4869,7 @@
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D49">
         <v>49</v>
@@ -4875,7 +4892,7 @@
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D50">
         <v>51</v>
@@ -4898,7 +4915,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D51">
         <v>52</v>
@@ -4921,7 +4938,7 @@
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D52">
         <v>53</v>
@@ -4944,7 +4961,7 @@
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D53">
         <v>54</v>
@@ -4967,7 +4984,7 @@
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D54">
         <v>55</v>
@@ -4990,7 +5007,7 @@
         <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D55">
         <v>56</v>
@@ -5013,7 +5030,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D56">
         <v>57</v>
@@ -5036,7 +5053,7 @@
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D57">
         <v>58</v>
@@ -5059,7 +5076,7 @@
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D58">
         <v>59</v>
@@ -5082,7 +5099,7 @@
         <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D59">
         <v>60</v>
@@ -5105,7 +5122,7 @@
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D60">
         <v>61</v>
@@ -5128,7 +5145,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D61">
         <v>62</v>
@@ -5151,7 +5168,7 @@
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D62">
         <v>63</v>
@@ -5174,7 +5191,7 @@
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D63">
         <v>64</v>
@@ -5197,7 +5214,7 @@
         <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D64">
         <v>65</v>
@@ -5220,7 +5237,7 @@
         <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D65">
         <v>66</v>
@@ -5243,7 +5260,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D66">
         <v>68</v>
@@ -5266,7 +5283,7 @@
         <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D67">
         <v>69</v>
@@ -5289,7 +5306,7 @@
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D68">
         <v>70</v>
@@ -5312,7 +5329,7 @@
         <v>5</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D69">
         <v>71</v>
@@ -5335,7 +5352,7 @@
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D70">
         <v>72</v>
@@ -5358,7 +5375,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D71">
         <v>73</v>
@@ -5381,7 +5398,7 @@
         <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D72">
         <v>74</v>
@@ -5404,7 +5421,7 @@
         <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D73">
         <v>75</v>
@@ -5427,7 +5444,7 @@
         <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D74">
         <v>76</v>
@@ -5450,7 +5467,7 @@
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D75">
         <v>77</v>
@@ -5473,7 +5490,7 @@
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D76">
         <v>78</v>
@@ -5496,7 +5513,7 @@
         <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D77">
         <v>79</v>
@@ -5519,7 +5536,7 @@
         <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D78">
         <v>80</v>
@@ -5542,7 +5559,7 @@
         <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D79">
         <v>81</v>
@@ -5565,7 +5582,7 @@
         <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D80">
         <v>82</v>
@@ -5588,7 +5605,7 @@
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D81">
         <v>83</v>
@@ -5611,7 +5628,7 @@
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D82">
         <v>85</v>
@@ -5634,7 +5651,7 @@
         <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D83">
         <v>86</v>
@@ -5657,7 +5674,7 @@
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D84">
         <v>87</v>
@@ -5680,7 +5697,7 @@
         <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D85">
         <v>88</v>
@@ -5703,7 +5720,7 @@
         <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D86">
         <v>89</v>
@@ -5726,7 +5743,7 @@
         <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D87">
         <v>90</v>
@@ -5749,7 +5766,7 @@
         <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D88">
         <v>91</v>
@@ -5772,7 +5789,7 @@
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D89">
         <v>92</v>
@@ -5795,7 +5812,7 @@
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D90">
         <v>93</v>
@@ -5818,7 +5835,7 @@
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D91">
         <v>94</v>
@@ -5841,7 +5858,7 @@
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D92">
         <v>95</v>
@@ -5864,7 +5881,7 @@
         <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D93">
         <v>96</v>
@@ -5887,7 +5904,7 @@
         <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D94">
         <v>97</v>
@@ -5910,7 +5927,7 @@
         <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D95">
         <v>98</v>
@@ -5933,7 +5950,7 @@
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D96">
         <v>99</v>
@@ -5956,7 +5973,7 @@
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D97">
         <v>100</v>
@@ -5979,7 +5996,7 @@
         <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D98">
         <v>102</v>
@@ -6002,7 +6019,7 @@
         <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D99">
         <v>103</v>
@@ -6025,7 +6042,7 @@
         <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D100">
         <v>104</v>
@@ -6048,7 +6065,7 @@
         <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D101">
         <v>105</v>
@@ -6071,7 +6088,7 @@
         <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D102">
         <v>106</v>
@@ -6094,7 +6111,7 @@
         <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D103">
         <v>107</v>
@@ -6117,7 +6134,7 @@
         <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D104">
         <v>108</v>
@@ -6140,7 +6157,7 @@
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D105">
         <v>109</v>
@@ -6163,7 +6180,7 @@
         <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D106">
         <v>110</v>
@@ -6186,7 +6203,7 @@
         <v>5</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D107">
         <v>111</v>
@@ -6209,7 +6226,7 @@
         <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D108">
         <v>112</v>
@@ -6232,7 +6249,7 @@
         <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D109">
         <v>113</v>
@@ -6255,7 +6272,7 @@
         <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D110">
         <v>114</v>
@@ -6278,7 +6295,7 @@
         <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D111">
         <v>115</v>
@@ -6301,7 +6318,7 @@
         <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D112">
         <v>116</v>
@@ -6324,7 +6341,7 @@
         <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D113">
         <v>117</v>
@@ -6347,7 +6364,7 @@
         <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D114">
         <v>119</v>
@@ -6370,7 +6387,7 @@
         <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D115">
         <v>120</v>
@@ -6393,7 +6410,7 @@
         <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D116">
         <v>121</v>
@@ -6416,7 +6433,7 @@
         <v>5</v>
       </c>
       <c r="C117" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D117">
         <v>122</v>
@@ -6439,7 +6456,7 @@
         <v>5</v>
       </c>
       <c r="C118" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D118">
         <v>123</v>
@@ -6462,7 +6479,7 @@
         <v>5</v>
       </c>
       <c r="C119" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D119">
         <v>124</v>
@@ -6485,7 +6502,7 @@
         <v>5</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D120">
         <v>125</v>
@@ -6508,7 +6525,7 @@
         <v>5</v>
       </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D121">
         <v>126</v>
@@ -6531,7 +6548,7 @@
         <v>5</v>
       </c>
       <c r="C122" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D122">
         <v>127</v>
@@ -6554,7 +6571,7 @@
         <v>5</v>
       </c>
       <c r="C123" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D123">
         <v>128</v>
@@ -6577,7 +6594,7 @@
         <v>5</v>
       </c>
       <c r="C124" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D124">
         <v>129</v>
@@ -6600,7 +6617,7 @@
         <v>5</v>
       </c>
       <c r="C125" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D125">
         <v>130</v>
@@ -6623,7 +6640,7 @@
         <v>5</v>
       </c>
       <c r="C126" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D126">
         <v>131</v>
@@ -6646,7 +6663,7 @@
         <v>5</v>
       </c>
       <c r="C127" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D127">
         <v>132</v>
@@ -6669,7 +6686,7 @@
         <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D128">
         <v>133</v>
@@ -6692,7 +6709,7 @@
         <v>5</v>
       </c>
       <c r="C129" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D129">
         <v>134</v>
@@ -6715,7 +6732,7 @@
         <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D130">
         <v>136</v>
@@ -6738,7 +6755,7 @@
         <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D131">
         <v>137</v>
@@ -6761,7 +6778,7 @@
         <v>5</v>
       </c>
       <c r="C132" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D132">
         <v>138</v>
@@ -6784,7 +6801,7 @@
         <v>5</v>
       </c>
       <c r="C133" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D133">
         <v>139</v>
@@ -6807,7 +6824,7 @@
         <v>5</v>
       </c>
       <c r="C134" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D134">
         <v>140</v>
@@ -6830,7 +6847,7 @@
         <v>5</v>
       </c>
       <c r="C135" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D135">
         <v>141</v>
@@ -6853,7 +6870,7 @@
         <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D136">
         <v>142</v>
@@ -6876,7 +6893,7 @@
         <v>5</v>
       </c>
       <c r="C137" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D137">
         <v>143</v>
@@ -6899,7 +6916,7 @@
         <v>5</v>
       </c>
       <c r="C138" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D138">
         <v>144</v>
@@ -6922,7 +6939,7 @@
         <v>5</v>
       </c>
       <c r="C139" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D139">
         <v>145</v>
@@ -6945,7 +6962,7 @@
         <v>5</v>
       </c>
       <c r="C140" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D140">
         <v>146</v>
@@ -6968,7 +6985,7 @@
         <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D141">
         <v>147</v>
@@ -6991,7 +7008,7 @@
         <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D142">
         <v>148</v>
@@ -7014,7 +7031,7 @@
         <v>5</v>
       </c>
       <c r="C143" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D143">
         <v>149</v>
@@ -7037,7 +7054,7 @@
         <v>5</v>
       </c>
       <c r="C144" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D144">
         <v>150</v>
@@ -7060,7 +7077,7 @@
         <v>5</v>
       </c>
       <c r="C145" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D145">
         <v>151</v>
@@ -7083,7 +7100,7 @@
         <v>5</v>
       </c>
       <c r="C146" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D146">
         <v>153</v>
@@ -7106,7 +7123,7 @@
         <v>5</v>
       </c>
       <c r="C147" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D147">
         <v>154</v>
@@ -7129,7 +7146,7 @@
         <v>5</v>
       </c>
       <c r="C148" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D148">
         <v>155</v>
@@ -7152,7 +7169,7 @@
         <v>5</v>
       </c>
       <c r="C149" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D149">
         <v>156</v>
@@ -7175,7 +7192,7 @@
         <v>5</v>
       </c>
       <c r="C150" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D150">
         <v>157</v>
@@ -7198,7 +7215,7 @@
         <v>5</v>
       </c>
       <c r="C151" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D151">
         <v>158</v>
@@ -7221,7 +7238,7 @@
         <v>5</v>
       </c>
       <c r="C152" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D152">
         <v>159</v>
@@ -7244,7 +7261,7 @@
         <v>5</v>
       </c>
       <c r="C153" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D153">
         <v>160</v>
@@ -7267,7 +7284,7 @@
         <v>5</v>
       </c>
       <c r="C154" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D154">
         <v>161</v>
@@ -7290,7 +7307,7 @@
         <v>5</v>
       </c>
       <c r="C155" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D155">
         <v>162</v>
@@ -7313,7 +7330,7 @@
         <v>5</v>
       </c>
       <c r="C156" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D156">
         <v>163</v>
@@ -7336,7 +7353,7 @@
         <v>5</v>
       </c>
       <c r="C157" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D157">
         <v>164</v>
@@ -7359,7 +7376,7 @@
         <v>5</v>
       </c>
       <c r="C158" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D158">
         <v>165</v>
@@ -7382,7 +7399,7 @@
         <v>5</v>
       </c>
       <c r="C159" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D159">
         <v>166</v>
@@ -7405,7 +7422,7 @@
         <v>5</v>
       </c>
       <c r="C160" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D160">
         <v>167</v>
@@ -7428,7 +7445,7 @@
         <v>5</v>
       </c>
       <c r="C161" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D161">
         <v>168</v>
@@ -7451,7 +7468,7 @@
         <v>5</v>
       </c>
       <c r="C162" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D162">
         <v>170</v>
@@ -7474,7 +7491,7 @@
         <v>5</v>
       </c>
       <c r="C163" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D163">
         <v>171</v>
@@ -7497,7 +7514,7 @@
         <v>5</v>
       </c>
       <c r="C164" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D164">
         <v>172</v>
@@ -7520,7 +7537,7 @@
         <v>5</v>
       </c>
       <c r="C165" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D165">
         <v>173</v>
@@ -7543,7 +7560,7 @@
         <v>5</v>
       </c>
       <c r="C166" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D166">
         <v>174</v>
@@ -7566,7 +7583,7 @@
         <v>5</v>
       </c>
       <c r="C167" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D167">
         <v>175</v>
@@ -7589,7 +7606,7 @@
         <v>5</v>
       </c>
       <c r="C168" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D168">
         <v>176</v>
@@ -7612,7 +7629,7 @@
         <v>5</v>
       </c>
       <c r="C169" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D169">
         <v>177</v>
@@ -7635,7 +7652,7 @@
         <v>5</v>
       </c>
       <c r="C170" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D170">
         <v>178</v>
@@ -7658,7 +7675,7 @@
         <v>5</v>
       </c>
       <c r="C171" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D171">
         <v>179</v>
@@ -7681,7 +7698,7 @@
         <v>5</v>
       </c>
       <c r="C172" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D172">
         <v>180</v>
@@ -7704,7 +7721,7 @@
         <v>5</v>
       </c>
       <c r="C173" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D173">
         <v>181</v>
@@ -7727,7 +7744,7 @@
         <v>5</v>
       </c>
       <c r="C174" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D174">
         <v>182</v>
@@ -7750,7 +7767,7 @@
         <v>5</v>
       </c>
       <c r="C175" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D175">
         <v>183</v>
@@ -7773,7 +7790,7 @@
         <v>5</v>
       </c>
       <c r="C176" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D176">
         <v>184</v>
@@ -7796,7 +7813,7 @@
         <v>5</v>
       </c>
       <c r="C177" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D177">
         <v>185</v>
@@ -7819,7 +7836,7 @@
         <v>5</v>
       </c>
       <c r="C178" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D178">
         <v>187</v>
@@ -7842,7 +7859,7 @@
         <v>5</v>
       </c>
       <c r="C179" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D179">
         <v>188</v>
@@ -7865,7 +7882,7 @@
         <v>5</v>
       </c>
       <c r="C180" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D180">
         <v>189</v>
@@ -7888,7 +7905,7 @@
         <v>5</v>
       </c>
       <c r="C181" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D181">
         <v>190</v>
@@ -7911,7 +7928,7 @@
         <v>5</v>
       </c>
       <c r="C182" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D182">
         <v>191</v>
@@ -7934,7 +7951,7 @@
         <v>5</v>
       </c>
       <c r="C183" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D183">
         <v>192</v>
@@ -7957,7 +7974,7 @@
         <v>5</v>
       </c>
       <c r="C184" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D184">
         <v>193</v>
@@ -7980,7 +7997,7 @@
         <v>5</v>
       </c>
       <c r="C185" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D185">
         <v>194</v>
@@ -8003,7 +8020,7 @@
         <v>5</v>
       </c>
       <c r="C186" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D186">
         <v>195</v>
@@ -8026,7 +8043,7 @@
         <v>5</v>
       </c>
       <c r="C187" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D187">
         <v>196</v>
@@ -8049,7 +8066,7 @@
         <v>5</v>
       </c>
       <c r="C188" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D188">
         <v>197</v>
@@ -8072,7 +8089,7 @@
         <v>5</v>
       </c>
       <c r="C189" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D189">
         <v>198</v>
@@ -8095,7 +8112,7 @@
         <v>5</v>
       </c>
       <c r="C190" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D190">
         <v>199</v>
@@ -8118,7 +8135,7 @@
         <v>5</v>
       </c>
       <c r="C191" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D191">
         <v>200</v>
@@ -8141,7 +8158,7 @@
         <v>5</v>
       </c>
       <c r="C192" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D192">
         <v>201</v>
@@ -8164,7 +8181,7 @@
         <v>5</v>
       </c>
       <c r="C193" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D193">
         <v>202</v>
@@ -8187,7 +8204,7 @@
         <v>5</v>
       </c>
       <c r="C194" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D194">
         <v>204</v>
@@ -8210,7 +8227,7 @@
         <v>5</v>
       </c>
       <c r="C195" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D195">
         <v>205</v>
@@ -8233,7 +8250,7 @@
         <v>5</v>
       </c>
       <c r="C196" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D196">
         <v>206</v>
@@ -8256,7 +8273,7 @@
         <v>5</v>
       </c>
       <c r="C197" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D197">
         <v>207</v>
@@ -8279,7 +8296,7 @@
         <v>5</v>
       </c>
       <c r="C198" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D198">
         <v>208</v>
@@ -8302,7 +8319,7 @@
         <v>5</v>
       </c>
       <c r="C199" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D199">
         <v>209</v>
@@ -8325,7 +8342,7 @@
         <v>5</v>
       </c>
       <c r="C200" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D200">
         <v>210</v>
@@ -8348,7 +8365,7 @@
         <v>5</v>
       </c>
       <c r="C201" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D201">
         <v>211</v>
@@ -8371,7 +8388,7 @@
         <v>5</v>
       </c>
       <c r="C202" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D202">
         <v>212</v>
@@ -8394,7 +8411,7 @@
         <v>5</v>
       </c>
       <c r="C203" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D203">
         <v>213</v>
@@ -8417,7 +8434,7 @@
         <v>5</v>
       </c>
       <c r="C204" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D204">
         <v>214</v>
@@ -8440,7 +8457,7 @@
         <v>5</v>
       </c>
       <c r="C205" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D205">
         <v>215</v>
@@ -8463,7 +8480,7 @@
         <v>5</v>
       </c>
       <c r="C206" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D206">
         <v>216</v>
@@ -8486,7 +8503,7 @@
         <v>5</v>
       </c>
       <c r="C207" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D207">
         <v>217</v>
@@ -8509,7 +8526,7 @@
         <v>5</v>
       </c>
       <c r="C208" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D208">
         <v>218</v>
@@ -8532,7 +8549,7 @@
         <v>5</v>
       </c>
       <c r="C209" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D209">
         <v>219</v>
@@ -8555,7 +8572,7 @@
         <v>5</v>
       </c>
       <c r="C210" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D210">
         <v>221</v>
@@ -8578,7 +8595,7 @@
         <v>5</v>
       </c>
       <c r="C211" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D211">
         <v>222</v>
@@ -8601,7 +8618,7 @@
         <v>5</v>
       </c>
       <c r="C212" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D212">
         <v>223</v>
@@ -8624,7 +8641,7 @@
         <v>5</v>
       </c>
       <c r="C213" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D213">
         <v>224</v>
@@ -8647,7 +8664,7 @@
         <v>5</v>
       </c>
       <c r="C214" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D214">
         <v>225</v>
@@ -8670,7 +8687,7 @@
         <v>5</v>
       </c>
       <c r="C215" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D215">
         <v>226</v>
@@ -8693,7 +8710,7 @@
         <v>5</v>
       </c>
       <c r="C216" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D216">
         <v>227</v>
@@ -8716,7 +8733,7 @@
         <v>5</v>
       </c>
       <c r="C217" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D217">
         <v>228</v>
@@ -8739,7 +8756,7 @@
         <v>5</v>
       </c>
       <c r="C218" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D218">
         <v>229</v>
@@ -8762,7 +8779,7 @@
         <v>5</v>
       </c>
       <c r="C219" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D219">
         <v>230</v>
@@ -8785,7 +8802,7 @@
         <v>5</v>
       </c>
       <c r="C220" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D220">
         <v>231</v>
@@ -8808,7 +8825,7 @@
         <v>5</v>
       </c>
       <c r="C221" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D221">
         <v>232</v>
@@ -8831,7 +8848,7 @@
         <v>5</v>
       </c>
       <c r="C222" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D222">
         <v>233</v>
@@ -8854,7 +8871,7 @@
         <v>5</v>
       </c>
       <c r="C223" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D223">
         <v>234</v>
@@ -8877,7 +8894,7 @@
         <v>5</v>
       </c>
       <c r="C224" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D224">
         <v>235</v>
@@ -8900,7 +8917,7 @@
         <v>5</v>
       </c>
       <c r="C225" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D225">
         <v>236</v>
@@ -8923,7 +8940,7 @@
         <v>5</v>
       </c>
       <c r="C226" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D226">
         <v>238</v>
@@ -8946,7 +8963,7 @@
         <v>5</v>
       </c>
       <c r="C227" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D227">
         <v>239</v>
@@ -8969,7 +8986,7 @@
         <v>5</v>
       </c>
       <c r="C228" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D228">
         <v>240</v>
@@ -8992,7 +9009,7 @@
         <v>5</v>
       </c>
       <c r="C229" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D229">
         <v>241</v>
@@ -9015,7 +9032,7 @@
         <v>5</v>
       </c>
       <c r="C230" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D230">
         <v>242</v>
@@ -9038,7 +9055,7 @@
         <v>5</v>
       </c>
       <c r="C231" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D231">
         <v>243</v>
@@ -9061,7 +9078,7 @@
         <v>5</v>
       </c>
       <c r="C232" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D232">
         <v>244</v>
@@ -9084,7 +9101,7 @@
         <v>5</v>
       </c>
       <c r="C233" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D233">
         <v>245</v>
@@ -9107,7 +9124,7 @@
         <v>5</v>
       </c>
       <c r="C234" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D234">
         <v>246</v>
@@ -9130,7 +9147,7 @@
         <v>5</v>
       </c>
       <c r="C235" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D235">
         <v>247</v>
@@ -9153,7 +9170,7 @@
         <v>5</v>
       </c>
       <c r="C236" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D236">
         <v>248</v>
@@ -9176,7 +9193,7 @@
         <v>5</v>
       </c>
       <c r="C237" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D237">
         <v>249</v>
@@ -9199,7 +9216,7 @@
         <v>5</v>
       </c>
       <c r="C238" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D238">
         <v>250</v>
@@ -9222,7 +9239,7 @@
         <v>5</v>
       </c>
       <c r="C239" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D239">
         <v>251</v>
@@ -9245,7 +9262,7 @@
         <v>5</v>
       </c>
       <c r="C240" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D240">
         <v>252</v>
@@ -9268,7 +9285,7 @@
         <v>5</v>
       </c>
       <c r="C241" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D241">
         <v>253</v>
@@ -9291,7 +9308,7 @@
         <v>5</v>
       </c>
       <c r="C242" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D242">
         <v>255</v>
@@ -9314,7 +9331,7 @@
         <v>5</v>
       </c>
       <c r="C243" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D243">
         <v>256</v>
@@ -9337,7 +9354,7 @@
         <v>5</v>
       </c>
       <c r="C244" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D244">
         <v>257</v>
@@ -9360,7 +9377,7 @@
         <v>5</v>
       </c>
       <c r="C245" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D245">
         <v>258</v>
@@ -9383,7 +9400,7 @@
         <v>5</v>
       </c>
       <c r="C246" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D246">
         <v>259</v>
@@ -9406,7 +9423,7 @@
         <v>5</v>
       </c>
       <c r="C247" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D247">
         <v>260</v>
@@ -9429,7 +9446,7 @@
         <v>5</v>
       </c>
       <c r="C248" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D248">
         <v>261</v>
@@ -9452,7 +9469,7 @@
         <v>5</v>
       </c>
       <c r="C249" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D249">
         <v>262</v>
@@ -9475,7 +9492,7 @@
         <v>5</v>
       </c>
       <c r="C250" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D250">
         <v>263</v>
@@ -9498,7 +9515,7 @@
         <v>5</v>
       </c>
       <c r="C251" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D251">
         <v>264</v>
@@ -9521,7 +9538,7 @@
         <v>5</v>
       </c>
       <c r="C252" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D252">
         <v>265</v>
@@ -9544,7 +9561,7 @@
         <v>5</v>
       </c>
       <c r="C253" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D253">
         <v>266</v>
@@ -9567,7 +9584,7 @@
         <v>5</v>
       </c>
       <c r="C254" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D254">
         <v>267</v>
@@ -9590,7 +9607,7 @@
         <v>5</v>
       </c>
       <c r="C255" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D255">
         <v>268</v>
@@ -9613,7 +9630,7 @@
         <v>5</v>
       </c>
       <c r="C256" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D256">
         <v>269</v>
@@ -9636,7 +9653,7 @@
         <v>5</v>
       </c>
       <c r="C257" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D257">
         <v>270</v>
@@ -9652,6 +9669,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9669,16 +9687,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -9686,10 +9704,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9724,10 +9742,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -12927,10 +12945,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -12938,10 +12956,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -12949,7 +12967,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -12960,7 +12978,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -12971,7 +12989,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -12982,7 +13000,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -12993,7 +13011,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -13004,7 +13022,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -13015,7 +13033,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -13026,7 +13044,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -13037,7 +13055,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -13048,7 +13066,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -13059,7 +13077,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -13070,7 +13088,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -13081,7 +13099,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -13092,7 +13110,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -13103,7 +13121,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -13114,7 +13132,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -13128,7 +13146,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
@@ -13315,7 +13333,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
@@ -13502,7 +13520,7 @@
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
@@ -13689,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
@@ -13876,7 +13894,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.4">
@@ -14063,7 +14081,7 @@
         <v>0</v>
       </c>
       <c r="C104" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.4">
@@ -14250,7 +14268,7 @@
         <v>0</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.4">
@@ -14437,7 +14455,7 @@
         <v>0</v>
       </c>
       <c r="C138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.4">
@@ -14624,7 +14642,7 @@
         <v>0</v>
       </c>
       <c r="C155" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.4">
@@ -14811,7 +14829,7 @@
         <v>0</v>
       </c>
       <c r="C172" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.4">
@@ -14998,7 +15016,7 @@
         <v>0</v>
       </c>
       <c r="C189" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.4">
@@ -15185,7 +15203,7 @@
         <v>0</v>
       </c>
       <c r="C206" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.4">
@@ -15372,7 +15390,7 @@
         <v>0</v>
       </c>
       <c r="C223" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.4">
@@ -15559,7 +15577,7 @@
         <v>0</v>
       </c>
       <c r="C240" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.4">
@@ -15746,7 +15764,7 @@
         <v>0</v>
       </c>
       <c r="C257" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.4">
@@ -15930,10 +15948,10 @@
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C274" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.4">
@@ -15941,10 +15959,10 @@
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C275" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.4">
@@ -15952,10 +15970,10 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C276" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.4">
@@ -15963,10 +15981,10 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C277" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.4">
@@ -15974,10 +15992,10 @@
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C278" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.4">
@@ -15985,10 +16003,10 @@
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C279" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.4">
@@ -15996,10 +16014,10 @@
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C280" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.4">
@@ -16007,10 +16025,10 @@
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C281" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.4">
@@ -16018,10 +16036,10 @@
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C282" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.4">
@@ -16029,10 +16047,10 @@
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C283" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.4">
@@ -16040,10 +16058,10 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C284" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.4">
@@ -16051,10 +16069,10 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C285" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.4">
@@ -16062,10 +16080,10 @@
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C286" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.4">
@@ -16073,10 +16091,10 @@
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C287" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.4">
@@ -16084,10 +16102,10 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C288" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.4">
@@ -16095,10 +16113,10 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C289" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.4">
@@ -16106,10 +16124,10 @@
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C290" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -16129,35 +16147,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -16169,15 +16187,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -16203,15 +16221,15 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3">
         <v>200</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" s="3">
@@ -16223,8 +16241,45 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>210000</v>
+      </c>
+      <c r="D3">
+        <v>0.3</v>
+      </c>
+    </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="E4" s="4"/>
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C5" s="3"/>
@@ -16249,7 +16304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -16257,19 +16312,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -16277,7 +16332,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="5">
         <v>0.01</v>

--- a/tests/inputfiles/block_2d_101.xlsx
+++ b/tests/inputfiles/block_2d_101.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adutz\Documents\GitHub\aperitif\tests\inputfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE04F3F-1A47-43BE-AF01-6CEBE569D968}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033C41AB-4E40-4C60-A0FC-5203FFD1C0A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2186" yWindow="1723" windowWidth="21600" windowHeight="11280" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -113,10 +113,10 @@
     <t>user-rubber</t>
   </si>
   <si>
-    <t>hyp-iso-inv</t>
+    <t>hyp-nos-inv</t>
   </si>
   <si>
-    <t>rubber-c</t>
+    <t>rubberx</t>
   </si>
 </sst>
 </file>
@@ -3752,7 +3752,7 @@
   <dimension ref="A1:G257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C2" sqref="C2:C257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -16188,7 +16188,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -16263,10 +16263,10 @@
         <v>28</v>
       </c>
       <c r="C4">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -16305,7 +16305,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -16338,10 +16338,10 @@
         <v>0.01</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>-100</v>
       </c>
       <c r="F2">
         <v>1</v>
